--- a/Aprender a SOMA.xlsx
+++ b/Aprender a SOMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71338739409\Desktop\Excel Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C379350-8B86-4F5C-AC70-0A8F2B307324}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A92D2E-5914-454C-A42B-53709620BF53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{5FFFFE55-6885-4C25-A1BE-7AFD9D211289}"/>
   </bookViews>
@@ -1378,8 +1378,8 @@
       <xdr:rowOff>137001</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2397157" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1422,6 +1422,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1557,7 +1558,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1669,6 +1670,130 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495403</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>62711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A048C387-C5E0-4A5C-AC1F-9FA2E26389FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="1085850"/>
+          <a:ext cx="2962378" cy="2786861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57765</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2962275" cy="233205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178333D8-FBFD-43EB-B091-2601B897118A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="4058265"/>
+          <a:ext cx="2962275" cy="233205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4" tooltip="https://www.flickr.com/photos/wwarby/19448615398/"/>
+            </a:rPr>
+            <a:t>Esta Foto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900"/>
+            <a:t> de Autor Desconhecido está licenciado em </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="https://creativecommons.org/licenses/by/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -2002,7 +2127,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
